--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 29 de abril de 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d08 elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45682398-34F1-4D3F-BCD5-8BEEED737A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA7F965-3F7E-402D-8D91-07EAB0639439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17844" windowHeight="11004" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -105,9 +105,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Peak Time Capacity Factors (dimensionless)</t>
-  </si>
-  <si>
     <t>http://www.epe.gov.br/sites-pt/publicacoes-dados-abertos/publicacoes/PublicacoesArquivos/publicacao-423/topico-482/NT_CME_EPE_DEE-NT-057_2019-r0.pdf</t>
   </si>
   <si>
@@ -193,6 +190,15 @@
   </si>
   <si>
     <t>We take the average between different regions, with a higher weight in the case of wind in Northeast</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (peak time capacity factors)</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
   </si>
 </sst>
 </file>
@@ -355,17 +361,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
@@ -377,14 +379,17 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -554,7 +559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -891,20 +896,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="134.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="5" max="5" width="49.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" style="7" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="7"/>
+    <col min="3" max="3" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1"/>
+    <col min="9" max="11" width="8.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,88 +918,73 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G2" s="9"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="19"/>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1003,7 +993,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -1048,265 +1038,265 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.38</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>0.38</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>0.36</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>0.37</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>0.4</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>0.44</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>0.47</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>0.5</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>0.53</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>0.5</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="9">
         <v>0.44</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="9">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="13">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>0.15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>0.15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>0.15</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>0.15</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>0.15</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>0.15</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>0.15</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>0.15</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>0.15</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="9">
         <v>0.15</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="9">
         <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>0.5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>0.5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>0.5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>0.5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>0.5</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>0.5</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>0.5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>0.5</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>0.5</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <f>0.66666*B4+0.33333*B3</f>
         <v>0.38332949999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:M5" si="0">0.66666*C4+0.33333*C3</f>
         <v>0.38332949999999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <f>B5*B2</f>
         <v>0.14566520999999999</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <f t="shared" ref="C6:M6" si="1">C5*C2</f>
         <v>0.14566520999999999</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>0.13799861999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>0.141831915</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>0.15333180000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>0.16866497999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>0.18016486499999998</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
         <v>0.19166474999999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>0.20316463500000001</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>0.19166474999999999</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>0.16866497999999999</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>0.15333180000000002</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <f>AVERAGE(B6:M6)</f>
         <v>0.16515112624999997</v>
       </c>
@@ -1336,45 +1326,45 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0.46</v>
@@ -1415,7 +1405,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0.2</v>
@@ -1456,7 +1446,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>0.49</v>
@@ -1496,106 +1486,106 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <f>0.66666*D4+0.33333*D3</f>
         <v>0.3933294</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <f t="shared" ref="E5:O5" si="0">0.66666*E4+0.33333*E3</f>
         <v>0.3699963</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0.3133302</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>0.2799972</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>0.35666310000000001</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>0.43332900000000002</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>0.48999510000000002</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>0.52332809999999996</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>0.49999500000000008</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>0.46332869999999998</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <f t="shared" si="0"/>
         <v>0.44999549999999999</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>0.43332900000000008</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <f>D5*D2</f>
         <v>0.18093152400000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <f t="shared" ref="E6:O6" si="1">E5*E2</f>
         <v>0.162798372</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>0.119065476</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>0.11759882399999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>0.171198288</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
         <v>0.24699752999999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>0.29889701099999999</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>0.37679623199999995</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>0.39999600000000007</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>0.35212981199999999</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <f t="shared" si="1"/>
         <v>0.28799712</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <f t="shared" si="1"/>
         <v>0.23833095000000007</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="10">
         <f>AVERAGE(D6:O6)</f>
         <v>0.24606142824999999</v>
       </c>
@@ -1618,45 +1608,45 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -1697,113 +1687,113 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0.25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>0.24</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>0.22</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>0.24</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>0.27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>0.22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>0.27</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <f t="shared" ref="B4:M4" si="0">AVERAGE(B2:B3)</f>
         <v>0.25</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="10">
         <f>AVERAGE(B4:M4)</f>
         <v>0.25166666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1821,19 +1811,25 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>20</v>
+      <c r="A1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,6 +1839,10 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
+      <c r="C2" s="3">
+        <f>B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1851,12 +1851,20 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C17" si="0">B3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1867,6 +1875,10 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1876,6 +1888,10 @@
         <f>'Onshore wind'!N6</f>
         <v>0.16515112624999997</v>
       </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16515112624999997</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1885,6 +1901,10 @@
         <f>'Solar PV'!N4</f>
         <v>0.25166666666666671</v>
       </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25166666666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1893,6 +1913,10 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1901,6 +1925,10 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1909,6 +1937,10 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1917,6 +1949,10 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1925,6 +1961,10 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1934,6 +1974,10 @@
         <f>B2</f>
         <v>1</v>
       </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1943,6 +1987,10 @@
         <f>'Offshore wind'!$P$6</f>
         <v>0.24606142824999999</v>
       </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24606142824999999</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1952,6 +2000,10 @@
         <f>B11</f>
         <v>1</v>
       </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1961,14 +2013,21 @@
         <f>B11</f>
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3">
         <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
